--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1984.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1984.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.011*"import" + 0.009*"exchange" + 0.007*"foreign" + 0.007*"may" + 0.007*"th" + 0.006*"bank" + 0.006*"export" + 0.005*"ing" + 0.005*"currency" + 0.004*"rate"</t>
-  </si>
-  <si>
-    <t>0.017*"foreign" + 0.017*"import" + 0.016*"exchange" + 0.015*"bank" + 0.012*"export" + 0.011*"may" + 0.011*"th" + 0.010*"ing" + 0.010*"currency" + 0.008*"ion"</t>
-  </si>
-  <si>
-    <t>0.012*"import" + 0.011*"foreign" + 0.011*"bank" + 0.010*"exchange" + 0.008*"export" + 0.007*"ion" + 0.007*"currency" + 0.007*"may" + 0.006*"percent" + 0.006*"ing"</t>
-  </si>
-  <si>
-    <t>0.002*"foreign" + 0.002*"exchange" + 0.002*"export" + 0.002*"bank" + 0.001*"may" + 0.001*"import" + 0.001*"ing" + 0.001*"rate" + 0.001*"payment" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.002*"bank" + 0.002*"foreign" + 0.002*"import" + 0.002*"ing" + 0.002*"exchange" + 0.002*"export" + 0.001*"th" + 0.001*"currency" + 0.001*"payment" + 0.001*"may"</t>
+    <t>0.054*"foreign" + 0.046*"exchange" + 0.035*"bank" + 0.035*"currency" + 0.016*"fund" + 0.016*"abroad" + 0.016*"may" + 0.013*"monetary" + 0.012*"international" + 0.011*"rate"</t>
+  </si>
+  <si>
+    <t>0.027*"export" + 0.026*"bank" + 0.022*"gold" + 0.021*"import" + 0.021*"require" + 0.019*"foreign" + 0.018*"capital" + 0.016*"may" + 0.016*"approval" + 0.012*"license"</t>
+  </si>
+  <si>
+    <t>0.028*"import" + 0.026*"ion" + 0.022*"account" + 0.020*"th" + 0.016*"may" + 0.016*"t" + 0.014*"ing" + 0.014*"ly" + 0.013*"payment" + 0.012*"ts"</t>
+  </si>
+  <si>
+    <t>0.024*"year" + 0.017*"ing" + 0.016*"dollar" + 0.015*"th" + 0.013*"december" + 0.012*"redistribution" + 0.011*"franc" + 0.011*"agreement" + 0.011*"period" + 0.010*"country"</t>
+  </si>
+  <si>
+    <t>0.043*"percent" + 0.036*"export" + 0.029*"rate" + 0.027*"import" + 0.026*"exchange" + 0.017*"tax" + 0.014*"control" + 0.012*"proceeds" + 0.012*"subject" + 0.010*"change"</t>
   </si>
 </sst>
 </file>
